--- a/outputs-r202/test-f__Atopobiaceae.xlsx
+++ b/outputs-r202/test-f__Atopobiaceae.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="37">
   <si>
     <t>Row</t>
   </si>
@@ -145,7 +145,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -155,14 +155,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -179,7 +183,7 @@
     <col min="2" max="2" width="15.85546875" customWidth="true"/>
     <col min="3" max="3" width="15.5703125" customWidth="true"/>
     <col min="4" max="4" width="15.5703125" customWidth="true"/>
-    <col min="5" max="5" width="15.7109375" customWidth="true"/>
+    <col min="5" max="5" width="15.5703125" customWidth="true"/>
     <col min="6" max="6" width="15.5703125" customWidth="true"/>
     <col min="7" max="7" width="17.28515625" customWidth="true"/>
     <col min="8" max="8" width="18.28515625" customWidth="true"/>
@@ -200,1088 +204,1088 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.00088074269701986273</v>
+        <v>0.00096273248061276584</v>
       </c>
       <c r="C2">
-        <v>2.2200366652923977e-14</v>
+        <v>2.2199918001946358e-14</v>
       </c>
       <c r="D2">
-        <v>2.2200366652923977e-14</v>
+        <v>2.2199918001946358e-14</v>
       </c>
       <c r="E2">
-        <v>8.4589821180663533e-09</v>
+        <v>1.7206039626843306e-08</v>
       </c>
       <c r="F2">
-        <v>2.2200366652923977e-14</v>
+        <v>2.2199918001946358e-14</v>
       </c>
       <c r="G2">
-        <v>2.2200366652923977e-14</v>
+        <v>2.2199918001946358e-14</v>
       </c>
       <c r="H2">
-        <v>1.0921839328001728e-06</v>
+        <v>1.5831145297980109e-06</v>
       </c>
       <c r="I2">
-        <v>2.2200366652923977e-14</v>
+        <v>2.2199918001946358e-14</v>
       </c>
       <c r="J2">
-        <v>2.2200366652923977e-14</v>
+        <v>2.2199918001946358e-14</v>
       </c>
       <c r="K2">
-        <v>0.00019707611158848571</v>
+        <v>0.00031697255221597997</v>
       </c>
       <c r="L2">
-        <v>0.02402517246950742</v>
+        <v>0.028331742213823823</v>
       </c>
       <c r="M2">
-        <v>2.2200366652923977e-14</v>
+        <v>2.2199918001946358e-14</v>
       </c>
       <c r="N2">
-        <v>0.00025613338627715249</v>
+        <v>0.000276360879053047</v>
       </c>
       <c r="O2">
-        <v>2.2200366652923977e-14</v>
+        <v>2.2199918001946358e-14</v>
       </c>
       <c r="P2">
-        <v>2.2200366652923977e-14</v>
+        <v>2.2199918001946358e-14</v>
       </c>
       <c r="Q2">
-        <v>2.2200366652923977e-14</v>
+        <v>2.2199918001946358e-14</v>
       </c>
       <c r="R2">
-        <v>2.2200366652923977e-14</v>
+        <v>2.2199918001946358e-14</v>
       </c>
       <c r="S2">
-        <v>0.9746397745043941</v>
+        <v>0.97011059134909217</v>
       </c>
       <c r="T2">
-        <v>1.8803177269443607e-10</v>
+        <v>2.0436636839439314e-10</v>
       </c>
       <c r="U2">
-        <v>2.2200366652923977e-14</v>
+        <v>2.2199918001946358e-14</v>
       </c>
       <c r="V2">
         <v>18</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.00012817211988917779</v>
+        <v>0.00012097786535155147</v>
       </c>
       <c r="C3">
-        <v>2.2199890931753987e-14</v>
+        <v>2.2197767666199444e-14</v>
       </c>
       <c r="D3">
-        <v>2.2199890931753987e-14</v>
+        <v>2.2197767666199444e-14</v>
       </c>
       <c r="E3">
-        <v>3.0286882186677349e-06</v>
+        <v>3.3666692182773387e-06</v>
       </c>
       <c r="F3">
-        <v>2.2199890931753987e-14</v>
+        <v>2.2197767666199444e-14</v>
       </c>
       <c r="G3">
-        <v>2.2199890931753987e-14</v>
+        <v>2.2197767666199444e-14</v>
       </c>
       <c r="H3">
-        <v>0.0018840748255728997</v>
+        <v>0.0017312170717266007</v>
       </c>
       <c r="I3">
-        <v>2.2199890931753987e-14</v>
+        <v>2.2197767666199444e-14</v>
       </c>
       <c r="J3">
-        <v>2.2199890931753987e-14</v>
+        <v>2.2197767666199444e-14</v>
       </c>
       <c r="K3">
-        <v>7.737580452678072e-06</v>
+        <v>9.783282925438186e-07</v>
       </c>
       <c r="L3">
-        <v>0.031497390094399773</v>
+        <v>0.052845348521876223</v>
       </c>
       <c r="M3">
-        <v>2.2199890931753987e-14</v>
+        <v>2.2197767666199444e-14</v>
       </c>
       <c r="N3">
-        <v>1.0005316369850341e-06</v>
+        <v>9.3252262783948725e-07</v>
       </c>
       <c r="O3">
-        <v>1.5845830972780356e-08</v>
+        <v>2.7144612195767882e-07</v>
       </c>
       <c r="P3">
-        <v>2.2199890931753987e-14</v>
+        <v>2.2197767666199444e-14</v>
       </c>
       <c r="Q3">
-        <v>2.2199890931753987e-14</v>
+        <v>2.2197767666199444e-14</v>
       </c>
       <c r="R3">
-        <v>0.96631724732975921</v>
+        <v>0.94526642612392131</v>
       </c>
       <c r="S3">
-        <v>2.2199890931753987e-14</v>
+        <v>2.2197767666199444e-14</v>
       </c>
       <c r="T3">
-        <v>0.00016133298399527508</v>
+        <v>3.0481450619495187e-05</v>
       </c>
       <c r="U3">
-        <v>2.2199890931753987e-14</v>
+        <v>2.2197767666199444e-14</v>
       </c>
       <c r="V3">
         <v>17</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>3.6188431048885387e-05</v>
+        <v>4.1126375794190903e-05</v>
       </c>
       <c r="C4">
-        <v>2.2204236615553365e-14</v>
+        <v>2.2203473619763659e-14</v>
       </c>
       <c r="D4">
-        <v>2.2204236615553365e-14</v>
+        <v>2.2203473619763659e-14</v>
       </c>
       <c r="E4">
-        <v>6.9277786631059018e-05</v>
+        <v>8.3686597172047297e-05</v>
       </c>
       <c r="F4">
-        <v>2.2204236615553365e-14</v>
+        <v>2.2203473619763659e-14</v>
       </c>
       <c r="G4">
-        <v>2.2204236615553365e-14</v>
+        <v>2.2203473619763659e-14</v>
       </c>
       <c r="H4">
-        <v>0.0011954474319135293</v>
+        <v>0.0012302497162398128</v>
       </c>
       <c r="I4">
-        <v>2.2204236615553365e-14</v>
+        <v>2.2203473619763659e-14</v>
       </c>
       <c r="J4">
-        <v>0.96583452675317338</v>
+        <v>0.94960799603576118</v>
       </c>
       <c r="K4">
-        <v>9.7532687104208844e-05</v>
+        <v>2.398107443996388e-05</v>
       </c>
       <c r="L4">
-        <v>0.023290209408584651</v>
+        <v>0.039379973507353144</v>
       </c>
       <c r="M4">
-        <v>2.2204236615553365e-14</v>
+        <v>2.2203473619763659e-14</v>
       </c>
       <c r="N4">
-        <v>0.0094738915562468905</v>
+        <v>0.0096309650868728024</v>
       </c>
       <c r="O4">
-        <v>8.0613664662741787e-08</v>
+        <v>1.2046593576779385e-07</v>
       </c>
       <c r="P4">
-        <v>2.2204236615553365e-14</v>
+        <v>2.2203473619763659e-14</v>
       </c>
       <c r="Q4">
-        <v>2.2204236615553365e-14</v>
+        <v>2.2203473619763659e-14</v>
       </c>
       <c r="R4">
-        <v>2.2204236615553365e-14</v>
+        <v>2.2203473619763659e-14</v>
       </c>
       <c r="S4">
-        <v>2.2204236615553365e-14</v>
+        <v>2.2203473619763659e-14</v>
       </c>
       <c r="T4">
-        <v>2.8453313881735609e-06</v>
+        <v>1.9011401868762613e-06</v>
       </c>
       <c r="U4">
-        <v>2.2204236615553365e-14</v>
+        <v>2.2203473619763659e-14</v>
       </c>
       <c r="V4">
         <v>9</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>6.4764395650390494e-05</v>
+        <v>5.6769468416322526e-05</v>
       </c>
       <c r="C5">
-        <v>7.9773437530790844e-14</v>
+        <v>2.2202983452190872e-14</v>
       </c>
       <c r="D5">
-        <v>7.9773437530790844e-14</v>
+        <v>2.2202983452190872e-14</v>
       </c>
       <c r="E5">
-        <v>0.93236960957613746</v>
+        <v>0.96577764621045636</v>
       </c>
       <c r="F5">
-        <v>7.9773437530790844e-14</v>
+        <v>2.2202983452190872e-14</v>
       </c>
       <c r="G5">
-        <v>7.9773437530790743e-14</v>
+        <v>2.2202983452190872e-14</v>
       </c>
       <c r="H5">
-        <v>0.033025533240972522</v>
+        <v>0.019987952332911278</v>
       </c>
       <c r="I5">
-        <v>7.9773437530790743e-14</v>
+        <v>2.2202983452190872e-14</v>
       </c>
       <c r="J5">
-        <v>7.9773437530790743e-14</v>
+        <v>2.2202983452190872e-14</v>
       </c>
       <c r="K5">
-        <v>0.00010483510481038686</v>
+        <v>0.00022875716581236428</v>
       </c>
       <c r="L5">
-        <v>0.015752914775974299</v>
+        <v>0.0077127827368492063</v>
       </c>
       <c r="M5">
-        <v>7.9773437530790869e-14</v>
+        <v>2.2202983452190872e-14</v>
       </c>
       <c r="N5">
-        <v>0.016520076219631287</v>
+        <v>0.005684562198798193</v>
       </c>
       <c r="O5">
-        <v>5.6187300323196708e-11</v>
+        <v>3.4777956599803815e-12</v>
       </c>
       <c r="P5">
-        <v>7.9773437530790869e-14</v>
+        <v>2.2202983452190872e-14</v>
       </c>
       <c r="Q5">
-        <v>7.9773437530790743e-14</v>
+        <v>2.2202983452190872e-14</v>
       </c>
       <c r="R5">
-        <v>7.9773437530790743e-14</v>
+        <v>2.2202983452190872e-14</v>
       </c>
       <c r="S5">
-        <v>7.9773437530790655e-14</v>
+        <v>2.2202983452190872e-14</v>
       </c>
       <c r="T5">
-        <v>0.0021622666296790436</v>
+        <v>0.00055152988301203918</v>
       </c>
       <c r="U5">
-        <v>7.9773437530790655e-14</v>
+        <v>2.2202983452190872e-14</v>
       </c>
       <c r="V5">
         <v>4</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>7.311541451881346e-05</v>
+        <v>7.5365693189844847e-05</v>
       </c>
       <c r="C6">
-        <v>2.219906104123567e-14</v>
+        <v>2.2198212392112817e-14</v>
       </c>
       <c r="D6">
-        <v>2.219906104123567e-14</v>
+        <v>2.2198212392112817e-14</v>
       </c>
       <c r="E6">
-        <v>0.00011064928643920711</v>
+        <v>8.4085175046423122e-05</v>
       </c>
       <c r="F6">
-        <v>2.219906104123567e-14</v>
+        <v>2.2198212392112817e-14</v>
       </c>
       <c r="G6">
-        <v>2.219906104123567e-14</v>
+        <v>2.2198212392112817e-14</v>
       </c>
       <c r="H6">
-        <v>0.0015430792800631076</v>
+        <v>0.0012579857457080546</v>
       </c>
       <c r="I6">
-        <v>2.219906104123567e-14</v>
+        <v>2.2198212392112817e-14</v>
       </c>
       <c r="J6">
-        <v>0.95422934936831816</v>
+        <v>0.94938000356343366</v>
       </c>
       <c r="K6">
-        <v>0.0011757846888989555</v>
+        <v>0.00017545447327497522</v>
       </c>
       <c r="L6">
-        <v>0.042220611866039121</v>
+        <v>0.047829534107175449</v>
       </c>
       <c r="M6">
-        <v>2.219906104123567e-14</v>
+        <v>2.2198212392112817e-14</v>
       </c>
       <c r="N6">
-        <v>0.0006405518316751149</v>
+        <v>0.0011951547480877536</v>
       </c>
       <c r="O6">
-        <v>1.7807047916369225e-08</v>
+        <v>7.0568534486743769e-08</v>
       </c>
       <c r="P6">
-        <v>2.219906104123567e-14</v>
+        <v>2.2198212392112817e-14</v>
       </c>
       <c r="Q6">
-        <v>2.219906104123567e-14</v>
+        <v>2.2198212392112817e-14</v>
       </c>
       <c r="R6">
-        <v>2.219906104123567e-14</v>
+        <v>2.2198212392112817e-14</v>
       </c>
       <c r="S6">
-        <v>2.219906104123567e-14</v>
+        <v>2.2198212392112817e-14</v>
       </c>
       <c r="T6">
-        <v>6.8404567552913335e-06</v>
+        <v>2.3459253051843813e-06</v>
       </c>
       <c r="U6">
-        <v>2.219906104123567e-14</v>
+        <v>2.2198212392112817e-14</v>
       </c>
       <c r="V6">
         <v>9</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.00019061517078768628</v>
+        <v>0.00021090548412005416</v>
       </c>
       <c r="C7">
-        <v>2.2200146990454999e-14</v>
+        <v>2.2198734817253745e-14</v>
       </c>
       <c r="D7">
-        <v>2.2200146990454999e-14</v>
+        <v>2.2198734817253745e-14</v>
       </c>
       <c r="E7">
-        <v>2.6961494138590103e-06</v>
+        <v>1.4453505173745676e-06</v>
       </c>
       <c r="F7">
-        <v>2.2200146990454999e-14</v>
+        <v>2.2198734817253745e-14</v>
       </c>
       <c r="G7">
-        <v>2.2200146990454999e-14</v>
+        <v>2.2198734817253745e-14</v>
       </c>
       <c r="H7">
-        <v>0.0019401493384338432</v>
+        <v>0.0015546431513631528</v>
       </c>
       <c r="I7">
-        <v>2.2200146990454999e-14</v>
+        <v>2.2198734817253745e-14</v>
       </c>
       <c r="J7">
-        <v>2.2200146990454999e-14</v>
+        <v>2.2198734817253745e-14</v>
       </c>
       <c r="K7">
-        <v>3.4887254950650775e-06</v>
+        <v>2.8744107658359592e-06</v>
       </c>
       <c r="L7">
-        <v>0.029312698916528872</v>
+        <v>0.041922372771467924</v>
       </c>
       <c r="M7">
-        <v>2.2200146990454999e-14</v>
+        <v>2.2198734817253745e-14</v>
       </c>
       <c r="N7">
-        <v>1.9826723418398463e-08</v>
+        <v>4.3114434664732395e-09</v>
       </c>
       <c r="O7">
-        <v>4.2714769381651364e-05</v>
+        <v>0.00036563421150564692</v>
       </c>
       <c r="P7">
-        <v>0.9684682189817384</v>
+        <v>0.95591239000422112</v>
       </c>
       <c r="Q7">
-        <v>2.2200146990454999e-14</v>
+        <v>2.2198734817253745e-14</v>
       </c>
       <c r="R7">
-        <v>2.2200146990454999e-14</v>
+        <v>2.2198734817253745e-14</v>
       </c>
       <c r="S7">
-        <v>2.2200146990454999e-14</v>
+        <v>2.2198734817253745e-14</v>
       </c>
       <c r="T7">
-        <v>3.9398121253155734e-05</v>
+        <v>2.9730304351144833e-05</v>
       </c>
       <c r="U7">
-        <v>2.2200146990454999e-14</v>
+        <v>2.2198734817253745e-14</v>
       </c>
       <c r="V7">
         <v>15</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1.0358728913048086e-05</v>
+        <v>1.0155378591987677e-05</v>
       </c>
       <c r="C8">
-        <v>2.2201534095993386e-14</v>
+        <v>2.2201956347791643e-14</v>
       </c>
       <c r="D8">
-        <v>2.2201534095993386e-14</v>
+        <v>2.2201956347791643e-14</v>
       </c>
       <c r="E8">
-        <v>3.6991537880623199e-05</v>
+        <v>3.8343057452101313e-05</v>
       </c>
       <c r="F8">
-        <v>2.2201534095993386e-14</v>
+        <v>2.2201956347791643e-14</v>
       </c>
       <c r="G8">
-        <v>2.2201534095993386e-14</v>
+        <v>2.2201956347791643e-14</v>
       </c>
       <c r="H8">
-        <v>0.00018136123174841522</v>
+        <v>0.00025327806316392088</v>
       </c>
       <c r="I8">
-        <v>2.2201534095993386e-14</v>
+        <v>2.2201956347791643e-14</v>
       </c>
       <c r="J8">
-        <v>2.2201534095993386e-14</v>
+        <v>2.2201956347791643e-14</v>
       </c>
       <c r="K8">
-        <v>0.99300756617758812</v>
+        <v>0.98480472285261877</v>
       </c>
       <c r="L8">
-        <v>0.0061761916359815245</v>
+        <v>0.012917269038993432</v>
       </c>
       <c r="M8">
-        <v>2.2201534095993386e-14</v>
+        <v>2.2201956347791643e-14</v>
       </c>
       <c r="N8">
-        <v>0.00025908800410693098</v>
+        <v>5.7192344506555753e-05</v>
       </c>
       <c r="O8">
-        <v>0.00032522549956260282</v>
+        <v>0.0019174444043186486</v>
       </c>
       <c r="P8">
-        <v>2.2201534095993386e-14</v>
+        <v>2.2201956347791643e-14</v>
       </c>
       <c r="Q8">
-        <v>2.2201534095993386e-14</v>
+        <v>2.2201956347791643e-14</v>
       </c>
       <c r="R8">
-        <v>2.2201534095993386e-14</v>
+        <v>2.2201956347791643e-14</v>
       </c>
       <c r="S8">
-        <v>2.2201534095993386e-14</v>
+        <v>2.2201956347791643e-14</v>
       </c>
       <c r="T8">
-        <v>3.2171839522804404e-06</v>
+        <v>1.5948600881903808e-06</v>
       </c>
       <c r="U8">
-        <v>2.2201534095993386e-14</v>
+        <v>2.2201956347791643e-14</v>
       </c>
       <c r="V8">
         <v>10</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2.8053619468806018e-06</v>
+        <v>6.0048075391197662e-06</v>
       </c>
       <c r="C9">
-        <v>2.2202177150811912e-14</v>
+        <v>2.2201160099418564e-14</v>
       </c>
       <c r="D9">
-        <v>2.2202177150811912e-14</v>
+        <v>2.2201160099418564e-14</v>
       </c>
       <c r="E9">
-        <v>3.4677108773960884e-07</v>
+        <v>3.4484956866443529e-07</v>
       </c>
       <c r="F9">
-        <v>2.2202177150811912e-14</v>
+        <v>2.2201160099418564e-14</v>
       </c>
       <c r="G9">
-        <v>2.2202177150811912e-14</v>
+        <v>2.2201160099418564e-14</v>
       </c>
       <c r="H9">
-        <v>1.4468988680993472e-05</v>
+        <v>2.7797400545253546e-05</v>
       </c>
       <c r="I9">
-        <v>2.2202177150811912e-14</v>
+        <v>2.2201160099418564e-14</v>
       </c>
       <c r="J9">
-        <v>2.2202177150811912e-14</v>
+        <v>2.2201160099418564e-14</v>
       </c>
       <c r="K9">
-        <v>5.1006033781674442e-14</v>
+        <v>2.2201160099418564e-14</v>
       </c>
       <c r="L9">
-        <v>0.0014167013254780764</v>
+        <v>0.0029190561563359205</v>
       </c>
       <c r="M9">
-        <v>2.2202177150811912e-14</v>
+        <v>2.2201160099418564e-14</v>
       </c>
       <c r="N9">
-        <v>0.00063493355233671615</v>
+        <v>4.5832634476022859e-05</v>
       </c>
       <c r="O9">
-        <v>2.5748446398732981e-08</v>
+        <v>2.4154386970556705e-07</v>
       </c>
       <c r="P9">
-        <v>2.2202177150811912e-14</v>
+        <v>2.2201160099418564e-14</v>
       </c>
       <c r="Q9">
-        <v>0.99793068867576973</v>
+        <v>0.99700069313216666</v>
       </c>
       <c r="R9">
-        <v>2.2202177150811912e-14</v>
+        <v>2.2201160099418564e-14</v>
       </c>
       <c r="S9">
-        <v>2.2202177150811912e-14</v>
+        <v>2.2201160099418564e-14</v>
       </c>
       <c r="T9">
-        <v>2.9575958314381836e-08</v>
+        <v>2.947523229168395e-08</v>
       </c>
       <c r="U9">
-        <v>2.2202177150811912e-14</v>
+        <v>2.2201160099418564e-14</v>
       </c>
       <c r="V9">
         <v>16</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>6.5013941033530726e-06</v>
+        <v>8.9991483635509146e-06</v>
       </c>
       <c r="C10">
-        <v>2.2202049218085235e-14</v>
+        <v>2.2202614321152212e-14</v>
       </c>
       <c r="D10">
-        <v>2.2202049218085235e-14</v>
+        <v>2.2202614321152212e-14</v>
       </c>
       <c r="E10">
-        <v>1.4993149412908495e-05</v>
+        <v>4.1199912355133381e-05</v>
       </c>
       <c r="F10">
-        <v>2.2202049218085235e-14</v>
+        <v>2.2202614321152212e-14</v>
       </c>
       <c r="G10">
-        <v>2.2202049218085235e-14</v>
+        <v>2.2202614321152212e-14</v>
       </c>
       <c r="H10">
-        <v>0.00012816911506561291</v>
+        <v>0.00029454433647311509</v>
       </c>
       <c r="I10">
-        <v>2.2202049218085235e-14</v>
+        <v>2.2202614321152212e-14</v>
       </c>
       <c r="J10">
-        <v>2.2202049218085235e-14</v>
+        <v>2.2202614321152212e-14</v>
       </c>
       <c r="K10">
-        <v>0.991829035781156</v>
+        <v>0.98210069480942441</v>
       </c>
       <c r="L10">
-        <v>0.0062859043201089542</v>
+        <v>0.013757218491481506</v>
       </c>
       <c r="M10">
-        <v>2.2202049218085235e-14</v>
+        <v>2.2202614321152212e-14</v>
       </c>
       <c r="N10">
-        <v>0.00013618900794113841</v>
+        <v>0.0001580402992789209</v>
       </c>
       <c r="O10">
-        <v>0.0015980472328649934</v>
+        <v>0.0036370338231180425</v>
       </c>
       <c r="P10">
-        <v>2.2202049218085235e-14</v>
+        <v>2.2202614321152212e-14</v>
       </c>
       <c r="Q10">
-        <v>2.2202049218085235e-14</v>
+        <v>2.2202614321152212e-14</v>
       </c>
       <c r="R10">
-        <v>2.2202049218085235e-14</v>
+        <v>2.2202614321152212e-14</v>
       </c>
       <c r="S10">
-        <v>2.2202049218085235e-14</v>
+        <v>2.2202614321152212e-14</v>
       </c>
       <c r="T10">
-        <v>1.1599990806626751e-06</v>
+        <v>2.2691792387817793e-06</v>
       </c>
       <c r="U10">
-        <v>2.2202049218085235e-14</v>
+        <v>2.2202614321152212e-14</v>
       </c>
       <c r="V10">
         <v>10</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>7.6385681814004769e-06</v>
+        <v>7.7064803914243927e-06</v>
       </c>
       <c r="C11">
-        <v>2.2202119017749298e-14</v>
+        <v>2.2202392629255428e-14</v>
       </c>
       <c r="D11">
-        <v>2.2202119017749298e-14</v>
+        <v>2.2202392629255428e-14</v>
       </c>
       <c r="E11">
-        <v>4.0391296143169185e-05</v>
+        <v>3.2346390939595039e-05</v>
       </c>
       <c r="F11">
-        <v>2.2202119017749298e-14</v>
+        <v>2.2202392629255428e-14</v>
       </c>
       <c r="G11">
-        <v>2.2202119017749298e-14</v>
+        <v>2.2202392629255428e-14</v>
       </c>
       <c r="H11">
-        <v>0.00023905412581611978</v>
+        <v>0.00020102731721998273</v>
       </c>
       <c r="I11">
-        <v>2.2202119017749298e-14</v>
+        <v>2.2202392629255428e-14</v>
       </c>
       <c r="J11">
-        <v>2.2202119017749298e-14</v>
+        <v>2.2202392629255428e-14</v>
       </c>
       <c r="K11">
-        <v>0.98866712422385172</v>
+        <v>0.98857114042720096</v>
       </c>
       <c r="L11">
-        <v>0.0091727371259311356</v>
+        <v>0.0086950221495908954</v>
       </c>
       <c r="M11">
-        <v>2.2202119017749298e-14</v>
+        <v>2.2202392629255428e-14</v>
       </c>
       <c r="N11">
-        <v>0.00014265549948557475</v>
+        <v>8.0546242536966067e-05</v>
       </c>
       <c r="O11">
-        <v>0.0017266305571420578</v>
+        <v>0.0024101707434930654</v>
       </c>
       <c r="P11">
-        <v>2.2202119017749298e-14</v>
+        <v>2.2202392629255428e-14</v>
       </c>
       <c r="Q11">
-        <v>2.2202119017749298e-14</v>
+        <v>2.2202392629255428e-14</v>
       </c>
       <c r="R11">
-        <v>2.2202119017749298e-14</v>
+        <v>2.2202392629255428e-14</v>
       </c>
       <c r="S11">
-        <v>2.2202119017749298e-14</v>
+        <v>2.2202392629255428e-14</v>
       </c>
       <c r="T11">
-        <v>3.7686031825551849e-06</v>
+        <v>2.0402483605886625e-06</v>
       </c>
       <c r="U11">
-        <v>2.2202119017749298e-14</v>
+        <v>2.2202392629255428e-14</v>
       </c>
       <c r="V11">
         <v>10</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>2.7349492130190659e-05</v>
+        <v>2.8297622386672609e-05</v>
       </c>
       <c r="C12">
-        <v>2.2202163696422766e-14</v>
+        <v>2.2202318582422786e-14</v>
       </c>
       <c r="D12">
-        <v>2.2202163696422766e-14</v>
+        <v>2.2202318582422786e-14</v>
       </c>
       <c r="E12">
-        <v>2.3801913824704317e-09</v>
+        <v>1.9112902449624122e-09</v>
       </c>
       <c r="F12">
-        <v>2.2202163696422766e-14</v>
+        <v>2.2202318582422786e-14</v>
       </c>
       <c r="G12">
-        <v>2.2202163696422766e-14</v>
+        <v>2.2202318582422786e-14</v>
       </c>
       <c r="H12">
-        <v>1.2207660734143813e-07</v>
+        <v>1.0990983505956199e-07</v>
       </c>
       <c r="I12">
-        <v>2.2202163696422766e-14</v>
+        <v>2.2202318582422786e-14</v>
       </c>
       <c r="J12">
-        <v>2.2202163696422766e-14</v>
+        <v>2.2202318582422786e-14</v>
       </c>
       <c r="K12">
-        <v>0.98287537589725915</v>
+        <v>0.99144248985016903</v>
       </c>
       <c r="L12">
-        <v>0.0028747449845549769</v>
+        <v>0.0038194514643337938</v>
       </c>
       <c r="M12">
-        <v>2.2202163696422766e-14</v>
+        <v>2.2202318582422786e-14</v>
       </c>
       <c r="N12">
-        <v>0.014222405089628383</v>
+        <v>0.0047096491892093494</v>
       </c>
       <c r="O12">
-        <v>2.2202163696422766e-14</v>
+        <v>2.2202318582422786e-14</v>
       </c>
       <c r="P12">
-        <v>2.2202163696422766e-14</v>
+        <v>2.2202318582422786e-14</v>
       </c>
       <c r="Q12">
-        <v>2.2202163696422766e-14</v>
+        <v>2.2202318582422786e-14</v>
       </c>
       <c r="R12">
-        <v>2.2202163696422766e-14</v>
+        <v>2.2202318582422786e-14</v>
       </c>
       <c r="S12">
-        <v>2.2202163696422766e-14</v>
+        <v>2.2202318582422786e-14</v>
       </c>
       <c r="T12">
-        <v>7.9339971801772568e-11</v>
+        <v>5.2487162758331179e-11</v>
       </c>
       <c r="U12">
-        <v>2.2202163696422766e-14</v>
+        <v>2.2202318582422786e-14</v>
       </c>
       <c r="V12">
         <v>10</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>9.0227151940770409e-06</v>
+        <v>1.0324475411626224e-05</v>
       </c>
       <c r="C13">
-        <v>2.2201671501371506e-14</v>
+        <v>2.2201980126954108e-14</v>
       </c>
       <c r="D13">
-        <v>2.2201671501371506e-14</v>
+        <v>2.2201980126954108e-14</v>
       </c>
       <c r="E13">
-        <v>6.7650301861754605e-05</v>
+        <v>4.5166486618818009e-05</v>
       </c>
       <c r="F13">
-        <v>2.2201671501371506e-14</v>
+        <v>2.2201980126954108e-14</v>
       </c>
       <c r="G13">
-        <v>2.2201671501371506e-14</v>
+        <v>2.2201980126954108e-14</v>
       </c>
       <c r="H13">
-        <v>0.0006192861937724816</v>
+        <v>0.00033320422477605191</v>
       </c>
       <c r="I13">
-        <v>2.2201671501371506e-14</v>
+        <v>2.2201980126954108e-14</v>
       </c>
       <c r="J13">
-        <v>2.2201671501371506e-14</v>
+        <v>2.2201980126954108e-14</v>
       </c>
       <c r="K13">
-        <v>0.97611190920651802</v>
+        <v>0.980572180245739</v>
       </c>
       <c r="L13">
-        <v>0.020552644341156872</v>
+        <v>0.016366915202315632</v>
       </c>
       <c r="M13">
-        <v>2.2201671501371506e-14</v>
+        <v>2.2201980126954108e-14</v>
       </c>
       <c r="N13">
-        <v>5.0239963056920342e-05</v>
+        <v>5.1178916315747153e-05</v>
       </c>
       <c r="O13">
-        <v>0.0025833089157298148</v>
+        <v>0.002619045583445776</v>
       </c>
       <c r="P13">
-        <v>2.2201671501371506e-14</v>
+        <v>2.2201980126954108e-14</v>
       </c>
       <c r="Q13">
-        <v>2.2201671501371506e-14</v>
+        <v>2.2201980126954108e-14</v>
       </c>
       <c r="R13">
-        <v>2.2201671501371506e-14</v>
+        <v>2.2201980126954108e-14</v>
       </c>
       <c r="S13">
-        <v>2.2201671501371506e-14</v>
+        <v>2.2201980126954108e-14</v>
       </c>
       <c r="T13">
-        <v>5.9383624436989572e-06</v>
+        <v>1.9848651111269427e-06</v>
       </c>
       <c r="U13">
-        <v>2.2201671501371506e-14</v>
+        <v>2.2201980126954108e-14</v>
       </c>
       <c r="V13">
         <v>10</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>7.6595378762615331e-06</v>
+        <v>7.7728754347137051e-06</v>
       </c>
       <c r="C14">
-        <v>2.2201962385702161e-14</v>
+        <v>2.2202712229482102e-14</v>
       </c>
       <c r="D14">
-        <v>2.2201962385702161e-14</v>
+        <v>2.2202712229482102e-14</v>
       </c>
       <c r="E14">
-        <v>3.1448860000506058e-05</v>
+        <v>4.5036110393576808e-05</v>
       </c>
       <c r="F14">
-        <v>2.2201962385702161e-14</v>
+        <v>2.2202712229482102e-14</v>
       </c>
       <c r="G14">
-        <v>2.2201962385702161e-14</v>
+        <v>2.2202712229482102e-14</v>
       </c>
       <c r="H14">
-        <v>0.00019320306103682951</v>
+        <v>0.00026687517946928906</v>
       </c>
       <c r="I14">
-        <v>2.2201962385702161e-14</v>
+        <v>2.2202712229482102e-14</v>
       </c>
       <c r="J14">
-        <v>2.2201962385702161e-14</v>
+        <v>2.2202712229482102e-14</v>
       </c>
       <c r="K14">
-        <v>0.98932278981312094</v>
+        <v>0.98703575407505983</v>
       </c>
       <c r="L14">
-        <v>0.0089230501300689453</v>
+        <v>0.0092783916389574585</v>
       </c>
       <c r="M14">
-        <v>2.2201962385702161e-14</v>
+        <v>2.2202712229482102e-14</v>
       </c>
       <c r="N14">
-        <v>2.1123241761200551e-05</v>
+        <v>7.3262798374639163e-05</v>
       </c>
       <c r="O14">
-        <v>0.0014987305254134736</v>
+        <v>0.0032897621342322563</v>
       </c>
       <c r="P14">
-        <v>2.2201962385702161e-14</v>
+        <v>2.2202712229482102e-14</v>
       </c>
       <c r="Q14">
-        <v>2.2201962385702161e-14</v>
+        <v>2.2202712229482102e-14</v>
       </c>
       <c r="R14">
-        <v>2.2201962385702161e-14</v>
+        <v>2.2202712229482102e-14</v>
       </c>
       <c r="S14">
-        <v>2.2201962385702161e-14</v>
+        <v>2.2202712229482102e-14</v>
       </c>
       <c r="T14">
-        <v>1.9948304552465789e-06</v>
+        <v>3.1451878119138172e-06</v>
       </c>
       <c r="U14">
-        <v>2.2201962385702161e-14</v>
+        <v>2.2202712229482102e-14</v>
       </c>
       <c r="V14">
         <v>10</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>8.2570021146798309e-06</v>
+        <v>8.7192047837422901e-06</v>
       </c>
       <c r="C15">
-        <v>2.220193319350004e-14</v>
+        <v>2.2202735097440373e-14</v>
       </c>
       <c r="D15">
-        <v>2.220193319350004e-14</v>
+        <v>2.2202735097440373e-14</v>
       </c>
       <c r="E15">
-        <v>3.6102195224079836e-05</v>
+        <v>4.025327952998108e-05</v>
       </c>
       <c r="F15">
-        <v>2.220193319350004e-14</v>
+        <v>2.2202735097440373e-14</v>
       </c>
       <c r="G15">
-        <v>2.220193319350004e-14</v>
+        <v>2.2202735097440373e-14</v>
       </c>
       <c r="H15">
-        <v>0.0002902297879582847</v>
+        <v>0.00028897121074276645</v>
       </c>
       <c r="I15">
-        <v>2.220193319350004e-14</v>
+        <v>2.2202735097440373e-14</v>
       </c>
       <c r="J15">
-        <v>2.220193319350004e-14</v>
+        <v>2.2202735097440373e-14</v>
       </c>
       <c r="K15">
-        <v>0.98307404509834506</v>
+        <v>0.98195365714750527</v>
       </c>
       <c r="L15">
-        <v>0.014299394270914641</v>
+        <v>0.013600708392416014</v>
       </c>
       <c r="M15">
-        <v>2.220193319350004e-14</v>
+        <v>2.2202735097440373e-14</v>
       </c>
       <c r="N15">
-        <v>0.00010323250190711478</v>
+        <v>8.1987253641432604e-05</v>
       </c>
       <c r="O15">
-        <v>0.0021854307285612659</v>
+        <v>0.0040236757633750706</v>
       </c>
       <c r="P15">
-        <v>2.220193319350004e-14</v>
+        <v>2.2202735097440373e-14</v>
       </c>
       <c r="Q15">
-        <v>2.220193319350004e-14</v>
+        <v>2.2202735097440373e-14</v>
       </c>
       <c r="R15">
-        <v>2.220193319350004e-14</v>
+        <v>2.2202735097440373e-14</v>
       </c>
       <c r="S15">
-        <v>2.220193319350004e-14</v>
+        <v>2.2202735097440373e-14</v>
       </c>
       <c r="T15">
-        <v>3.3084147083621091e-06</v>
+        <v>2.0277477393613275e-06</v>
       </c>
       <c r="U15">
-        <v>2.220193319350004e-14</v>
+        <v>2.2202735097440373e-14</v>
       </c>
       <c r="V15">
         <v>10</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>2.3066288877648116e-05</v>
+        <v>1.4630925459493799e-05</v>
       </c>
       <c r="C16">
-        <v>2.2322439520498089e-14</v>
+        <v>2.2718387279429524e-14</v>
       </c>
       <c r="D16">
-        <v>2.2322439520498089e-14</v>
+        <v>2.2718387279429524e-14</v>
       </c>
       <c r="E16">
-        <v>0.037184645850597275</v>
+        <v>0.25216713160116611</v>
       </c>
       <c r="F16">
-        <v>2.2322439520498089e-14</v>
+        <v>2.2718387279429524e-14</v>
       </c>
       <c r="G16">
-        <v>2.2322439520498089e-14</v>
+        <v>2.2718387279429524e-14</v>
       </c>
       <c r="H16">
-        <v>0.0016358550482445441</v>
+        <v>0.0017549407642856959</v>
       </c>
       <c r="I16">
-        <v>2.2322439520498089e-14</v>
+        <v>2.2718387279429524e-14</v>
       </c>
       <c r="J16">
-        <v>2.2322439520498089e-14</v>
+        <v>2.2718387279429524e-14</v>
       </c>
       <c r="K16">
-        <v>0.60365169752598702</v>
+        <v>0.46502934407304686</v>
       </c>
       <c r="L16">
-        <v>0.0088035074438672402</v>
+        <v>0.0041536244199640842</v>
       </c>
       <c r="M16">
-        <v>2.2322439520498089e-14</v>
+        <v>2.2718387279429524e-14</v>
       </c>
       <c r="N16">
-        <v>0.34856671623384311</v>
+        <v>0.27678296201950492</v>
       </c>
       <c r="O16">
-        <v>3.6331126948890157e-14</v>
+        <v>2.2718387279429524e-14</v>
       </c>
       <c r="P16">
-        <v>2.2322439520498089e-14</v>
+        <v>2.2718387279429524e-14</v>
       </c>
       <c r="Q16">
-        <v>2.2322439520498089e-14</v>
+        <v>2.2718387279429524e-14</v>
       </c>
       <c r="R16">
-        <v>2.2322439520498089e-14</v>
+        <v>2.2718387279429524e-14</v>
       </c>
       <c r="S16">
-        <v>2.2322439520498089e-14</v>
+        <v>2.2718387279429524e-14</v>
       </c>
       <c r="T16">
-        <v>0.00013451160827884453</v>
+        <v>9.7366196277516744e-05</v>
       </c>
       <c r="U16">
-        <v>2.2322439520498089e-14</v>
+        <v>2.2718387279429524e-14</v>
       </c>
       <c r="V16">
         <v>10</v>
